--- a/excelCorrecto-clase/1_profe_alumno_Esquema de Aprendizaje - PlanificacionProcesos_RR - Ejercicios.xlsx
+++ b/excelCorrecto-clase/1_profe_alumno_Esquema de Aprendizaje - PlanificacionProcesos_RR - Ejercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumnos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@aleec02\OS-excel\excelCorrecto-clase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28627BA9-9F8F-4A11-9191-19F9C9CB77F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E81B24-2DE2-4F0A-AA59-063D48003863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="2820" activeTab="1" xr2:uid="{857C5106-1F78-41B8-A496-55FCC851C147}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{857C5106-1F78-41B8-A496-55FCC851C147}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 00" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
   <si>
     <t>P1</t>
   </si>
@@ -241,6 +252,21 @@
   </si>
   <si>
     <t>20 - 3 = 17</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
   </si>
 </sst>
 </file>
@@ -339,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +435,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,9 +616,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,21 +637,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1547,8 +1585,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>184350</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1607,8 +1645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4619625" y="1409700"/>
-          <a:ext cx="1485900" cy="571500"/>
+          <a:off x="4667751" y="1367589"/>
+          <a:ext cx="1501942" cy="553453"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,6 +1797,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280738</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>216568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9368</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00F8776-7FFF-FEF3-93E3-338334AE2FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6440906" y="3994484"/>
+          <a:ext cx="1653683" cy="929721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1767,15 +1849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>369357</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83609</xdr:rowOff>
+      <xdr:colOff>345294</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>359833</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:colOff>335770</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>98814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1790,8 +1872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="369357" y="4507442"/>
-          <a:ext cx="4943476" cy="752474"/>
+          <a:off x="345294" y="5000514"/>
+          <a:ext cx="4995613" cy="721058"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -2262,8 +2344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="1266825"/>
-          <a:ext cx="1095375" cy="876300"/>
+          <a:off x="5405967" y="1241425"/>
+          <a:ext cx="1120775" cy="855133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2316,6 +2398,170 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3827992" y="5425016"/>
+          <a:ext cx="331245" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>P5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>270489</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>351063</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D915B54-9B1F-CAEC-371B-12423DD67A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6430657" y="4358997"/>
+          <a:ext cx="1620617" cy="1102858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331245" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACACD210-3741-43E2-B240-80A9AC7FCD80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="770021" y="5807242"/>
+          <a:ext cx="331245" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>P2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>376989</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72189</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331245" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD748790-6ACA-470A-8C2C-E00C6E58184F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="4580021"/>
           <a:ext cx="331245" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3534,14 +3780,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3579,7 +3821,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3685,7 +3927,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3827,7 +4069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3840,33 +4082,33 @@
   </sheetPr>
   <dimension ref="B3:AQ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="36" width="5.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="32.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" style="1" customWidth="1"/>
-    <col min="43" max="50" width="5.7109375" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="32.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="24.6640625" style="1" customWidth="1"/>
+    <col min="43" max="50" width="5.6640625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="AL3" s="35"/>
-    </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="J12" s="38"/>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AL3" s="34"/>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="J12" s="37"/>
       <c r="K12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -3876,7 +4118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AL14" s="1" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +4126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="8">
         <v>0</v>
       </c>
@@ -3996,16 +4238,16 @@
       </c>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="2:43" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:43" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="12" t="s">
         <v>45</v>
       </c>
@@ -4051,18 +4293,18 @@
       <c r="AP16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AQ16" s="40">
+      <c r="AQ16" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="12" t="s">
         <v>45</v>
       </c>
@@ -4107,29 +4349,29 @@
       <c r="AO17" s="1">
         <v>1</v>
       </c>
-      <c r="AP17" s="39" t="s">
+      <c r="AP17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AQ17" s="40">
+      <c r="AQ17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="12" t="s">
         <v>45</v>
       </c>
@@ -4169,12 +4411,12 @@
       <c r="AP18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AQ18" s="40">
+      <c r="AQ18" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AN20" s="2" t="s">
         <v>11</v>
       </c>
@@ -4190,34 +4432,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J21" s="35"/>
-    </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="34"/>
+    </row>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
       <c r="O23" s="8"/>
       <c r="P23" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="R26" s="35"/>
-    </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="AP28" s="35"/>
-    </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="AP29" s="35"/>
-    </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="F32" s="35"/>
-    </row>
-    <row r="33" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="H33" s="35"/>
-    </row>
-    <row r="36" spans="8:39" x14ac:dyDescent="0.25">
-      <c r="K36" s="35"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="35"/>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="R26" s="34"/>
+    </row>
+    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP28" s="34"/>
+    </row>
+    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP29" s="34"/>
+    </row>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="8:39" x14ac:dyDescent="0.3">
+      <c r="H33" s="34"/>
+    </row>
+    <row r="36" spans="8:39" x14ac:dyDescent="0.3">
+      <c r="K36" s="34"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4230,25 +4472,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38F8069-A313-4B16-A032-03BE5BAA0F2B}">
   <dimension ref="B13:AQ37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="36" width="5.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="32.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="6.7109375" style="1" customWidth="1"/>
-    <col min="44" max="50" width="5.7109375" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="32.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="24.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6.6640625" style="1" customWidth="1"/>
+    <col min="44" max="50" width="5.6640625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AL14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4266,7 +4508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="8">
         <v>0</v>
       </c>
@@ -4378,7 +4620,7 @@
       </c>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="2:43" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:43" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
@@ -4387,21 +4629,21 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="31" t="s">
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="W16" s="12"/>
@@ -4437,21 +4679,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="12" t="s">
         <v>45</v>
       </c>
@@ -4496,19 +4738,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="34"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="12" t="s">
         <v>45</v>
       </c>
@@ -4555,30 +4797,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="42"/>
+      <c r="V19" s="39"/>
       <c r="W19" s="12" t="s">
         <v>45</v>
       </c>
@@ -4614,13 +4856,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="15"/>
       <c r="AM20" s="15"/>
     </row>
-    <row r="21" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AN21" s="2" t="s">
         <v>11</v>
       </c>
@@ -4636,17 +4878,17 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="22" spans="2:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:43" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
       <c r="O24" s="8"/>
       <c r="P24" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="AP25" s="35"/>
-    </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP25" s="34"/>
+    </row>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
@@ -4660,12 +4902,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C30" s="8">
         <v>0</v>
       </c>
@@ -4760,33 +5002,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="31" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="W31" s="31"/>
+      <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -4798,33 +5040,33 @@
       <c r="AF31" s="12"/>
       <c r="AG31" s="12"/>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="31" t="s">
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -4836,33 +5078,33 @@
       <c r="AF32" s="12"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="31" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
@@ -4874,31 +5116,31 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="31" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="12" t="s">
         <v>45</v>
       </c>
       <c r="X34" s="12"/>
@@ -4912,7 +5154,7 @@
       <c r="AF34" s="12"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C37" s="18" t="s">
         <v>54</v>
       </c>
@@ -4928,25 +5170,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E1BE58-7050-470B-BE18-85743FA50E69}">
   <dimension ref="B13:AQ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="36" width="5.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="32.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="6.7109375" style="1" customWidth="1"/>
-    <col min="44" max="50" width="5.7109375" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="32.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="24.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6.6640625" style="1" customWidth="1"/>
+    <col min="44" max="50" width="5.6640625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -4956,7 +5198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AL14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4964,7 +5206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="8">
         <v>0</v>
       </c>
@@ -5076,41 +5318,45 @@
       </c>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="2:43" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:43" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
+      <c r="C16" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
       <c r="AK16" s="3" t="s">
         <v>0</v>
       </c>
@@ -5121,41 +5367,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
       <c r="AK17" s="5" t="s">
         <v>1</v>
       </c>
@@ -5166,41 +5416,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
       <c r="AK18" s="5" t="s">
         <v>2</v>
       </c>
@@ -5211,41 +5465,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
       <c r="AK19" s="5" t="s">
         <v>3</v>
       </c>
@@ -5256,41 +5514,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
       <c r="AK20" s="17" t="s">
         <v>14</v>
       </c>
@@ -5301,13 +5563,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AK21" s="14"/>
       <c r="AL21" s="15"/>
       <c r="AM21" s="15"/>
     </row>
-    <row r="22" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AN22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5323,14 +5615,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="O25" s="8"/>
       <c r="P25" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="37:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK40" s="18" t="s">
         <v>27</v>
       </c>
@@ -5350,21 +5646,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="36" width="5.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="32.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="5.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="6.7109375" style="1" customWidth="1"/>
-    <col min="44" max="50" width="5.7109375" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="32.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="24.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6.6640625" style="1" customWidth="1"/>
+    <col min="44" max="50" width="5.6640625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AL14" s="1" t="s">
         <v>10</v>
       </c>
@@ -5382,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="8">
         <v>0</v>
       </c>
@@ -5494,7 +5790,7 @@
       </c>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="2:43" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:43" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
@@ -5539,7 +5835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
@@ -5583,7 +5879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
@@ -5627,7 +5923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
@@ -5672,7 +5968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
@@ -5717,13 +6013,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="15"/>
       <c r="AM21" s="15"/>
     </row>
-    <row r="22" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AN22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5739,14 +6035,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:43" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="O25" s="8"/>
       <c r="P25" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="37:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK40" s="18" t="s">
         <v>27</v>
       </c>
@@ -5766,19 +6062,19 @@
       <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="36" width="5.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" style="1" customWidth="1"/>
-    <col min="39" max="41" width="14.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="19.28515625" style="1" customWidth="1"/>
-    <col min="44" max="50" width="5.7109375" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="36" width="5.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" style="1" customWidth="1"/>
+    <col min="39" max="41" width="14.33203125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="19.33203125" style="1" customWidth="1"/>
+    <col min="44" max="50" width="5.6640625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AO12" s="30" t="s">
         <v>39</v>
       </c>
@@ -5789,7 +6085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5813,7 +6109,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AL14" s="8" t="s">
         <v>30</v>
       </c>
@@ -5833,7 +6129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="8">
         <v>0</v>
       </c>
@@ -5949,7 +6245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:43" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:43" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
@@ -6009,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
@@ -6068,7 +6364,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="18" spans="2:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
@@ -6127,7 +6423,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
@@ -6187,7 +6483,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:43" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
@@ -6247,7 +6543,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="2:43" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:43" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="15"/>
@@ -6256,7 +6552,7 @@
       <c r="AO21" s="15"/>
       <c r="AQ21" s="25"/>
     </row>
-    <row r="22" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AN22" s="8" t="s">
         <v>37</v>
       </c>
@@ -6273,13 +6569,13 @@
         <v>0.5852813852813854</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="O25" s="8"/>
       <c r="P25" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="37:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK40" s="18"/>
     </row>
   </sheetData>
